--- a/output/LORELEI_0153_2000_1214_Gold_3-13-21.xlsx
+++ b/output/LORELEI_0153_2000_1214_Gold_3-13-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Desktop/AutoAspect/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219E91D-8546-2F41-A585-4BF88C07104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC66864-5650-D14A-872A-632E3966AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="760" windowWidth="25600" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
